--- a/Data_science_outputs/500pop/avg_analysis/avg_analysis_3.xlsx
+++ b/Data_science_outputs/500pop/avg_analysis/avg_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13149.00618497336</v>
+        <v>9729.093657621781</v>
       </c>
       <c r="C3" t="n">
         <v>8013.179053796302</v>
       </c>
       <c r="D3" t="n">
-        <v>3902.51353835807</v>
+        <v>470.3620931982488</v>
       </c>
       <c r="E3" t="n">
         <v>1234.340506598172</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4593.528948579838</v>
+        <v>4138.919246199348</v>
       </c>
       <c r="C4" t="n">
         <v>3849.981269384471</v>
       </c>
       <c r="D4" t="n">
-        <v>3573.740686654773</v>
+        <v>239.5618669134855</v>
       </c>
       <c r="E4" t="n">
         <v>492.7744172744641</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3287.432413698628</v>
+        <v>3225.484638356162</v>
       </c>
       <c r="C5" t="n">
         <v>2387.3416</v>
       </c>
       <c r="D5" t="n">
-        <v>106.3593671232876</v>
+        <v>115.4662575342464</v>
       </c>
       <c r="E5" t="n">
         <v>412.2416410958899</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8250.13778972603</v>
+        <v>6659.110828082188</v>
       </c>
       <c r="C6" t="n">
         <v>5130.531225</v>
       </c>
       <c r="D6" t="n">
-        <v>245.0569513698626</v>
+        <v>239.2562041095886</v>
       </c>
       <c r="E6" t="n">
         <v>782.3414952054781</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13859.86581643836</v>
+        <v>8175.895741095894</v>
       </c>
       <c r="C7" t="n">
         <v>6337.263616666669</v>
       </c>
       <c r="D7" t="n">
-        <v>3919.633161643836</v>
+        <v>438.0731082191775</v>
       </c>
       <c r="E7" t="n">
         <v>1253.319423287672</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16303.25743630138</v>
+        <v>13473.65410273976</v>
       </c>
       <c r="C8" t="n">
         <v>11419.18527500003</v>
       </c>
       <c r="D8" t="n">
-        <v>7753.890416438356</v>
+        <v>716.4418102739726</v>
       </c>
       <c r="E8" t="n">
         <v>1636.47714589041</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20730.58427397264</v>
+        <v>18046.90854246576</v>
       </c>
       <c r="C9" t="n">
         <v>16420.11226666669</v>
       </c>
       <c r="D9" t="n">
-        <v>7830.023945205489</v>
+        <v>791.7007068493131</v>
       </c>
       <c r="E9" t="n">
         <v>2398.290027397263</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>18934568.90636165</v>
+        <v>14009894.86697536</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>11538977.83746668</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6093351868047172</v>
+        <v>0.8247830003711644</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>5619619.495235616</v>
+        <v>677321.4142054787</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2967915204738319</v>
+        <v>0.04834593126048975</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>1777450.32950137</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09387329272145087</v>
+        <v>0.126871068368346</v>
       </c>
     </row>
   </sheetData>
